--- a/제품등록 검토사항.xlsx
+++ b/제품등록 검토사항.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>거래조건에 관한 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>상품명에 상품코드 및 수량을 추가하는 것은 다른 카테고리 상품에도 동일하게 적용해야 하는지 확인필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4자리 이하 상품코드를 모두 4자리수로 표시해야 되는지 확인 요청
+ 예) 214 -&gt; 0214</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2404,10 +2413,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2478,6 +2487,17 @@
         <v>37</v>
       </c>
     </row>
+    <row r="7" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/제품등록 검토사항.xlsx
+++ b/제품등록 검토사항.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="등록방법" sheetId="2" r:id="rId1"/>
     <sheet name="체크사항" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2 (2)" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">등록방법!$A$1:$R$246</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">등록방법!$A$1:$R$238</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
   <si>
     <t>거래조건에 관한 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,13 +186,406 @@
     <t>4자리 이하 상품코드를 모두 4자리수로 표시해야 되는지 확인 요청
  예) 214 -&gt; 0214</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래 필수 사항 정보 필요</t>
+  </si>
+  <si>
+    <t>1. 단가는 10단위로 기입</t>
+  </si>
+  <si>
+    <t>10단위 이상으로 한다고 했는데 혹시 10단위로 안된 것은 반올림하시면 됩니다.</t>
+  </si>
+  <si>
+    <t>2. 박스 판매와 개당 판매 구별 필요 - 옵션으로 처리시 옵션가는 기본 판매가의 100%이내이어야 함. 박스 판매가가 높아 옵션으로 처리가 안됨</t>
+  </si>
+  <si>
+    <t>    다른 판매자는 낱개로 판매하며, 수량이 1box 기준을 넘어갈때마다 배송비를 추가하고 있음. - 기본 가격이 낮은 장점이 있음</t>
+  </si>
+  <si>
+    <t>    또는, 개당 소비자가로 판매하며, 수량이 1box 기준이 넘어가면 할인을 적용하여 낱개단가를 적용함 - 기본 가격은 높지만, 할인율이 높게 보이는 장점이 있음.</t>
+  </si>
+  <si>
+    <t>    박스 단위로 판매하는 경우에는 개별 상품으로 따로 페이지를 등록해야 함.- 라면, 과자류는 등록 상품이 두가지가 됨</t>
+  </si>
+  <si>
+    <t>우선은 옵션은 없이 갈까합니다.</t>
+  </si>
+  <si>
+    <t>"수량이 box기준을 넘어갈때마다 배송비 추가"가 좋겠습니다.</t>
+  </si>
+  <si>
+    <r>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF111111"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+  </si>
+  <si>
+    <t>3. A/S 안내내용 및 A/S 전화번호 필요</t>
+  </si>
+  <si>
+    <t>02-1661-0523(내선 3번)</t>
+  </si>
+  <si>
+    <t>4. 부가0세 정보 - 면세상품이 있는 경우 구별 필요</t>
+  </si>
+  <si>
+    <t>면세품은 모두 뺐습니다.</t>
+  </si>
+  <si>
+    <t>﻿</t>
+  </si>
+  <si>
+    <t>5. 원산지가 국내가 아닌경우 구별 필요</t>
+  </si>
+  <si>
+    <t>식품 및 음료에 수입품이 있는데 원산지는 서둘러 확인해서 보내겠습니다.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF111111"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+  </si>
+  <si>
+    <t>6. 배송비 정보 필요</t>
+  </si>
+  <si>
+    <r>
+      <t>   - 기본 배송비 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0055FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t> 2,500원</t>
+    </r>
+  </si>
+  <si>
+    <t>   - 무료배송 기준이 있는 경우 무료배송 기준 금액 - 참고로 무료배송 금액이 넘어가면 수량이 늘어 2개 box가 되더라도 무료배송으로 처리됨</t>
+  </si>
+  <si>
+    <r>
+      <t>                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0055FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 실험결과 무료는 무료로 유로는 유료로 잡힙니다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF111111"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>   - 반품 배송비 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0055FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무료배송의 경우 5,000, 유료배송은 2,500</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>   - 교환 배송비 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0055FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>5,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>   - 지역별 차등 배송비를 적용하는 경우, 추가 배송비 ( 제주, 제주외 도서산간) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0055FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 제주도 3,500, 도서산간 5,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>   - 낱개 판매의 경우, 배송비가 추가되는 수량 및 묶음 배송 처리할 분류 구별 필요 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0055FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체 상품 묶음 배송 가능</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7. 재고수량 필요 - 관리가 필요없는 경우, 100,000으로 입력할 예정임 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0055FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재 판단으로는 무관합니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>다른 판매자의 상품과 묶음 배송 여부는 고객센터로 문의주세요(02-1661-0523)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량별부과-수량</t>
+  </si>
+  <si>
+    <t>다른 판매자의 상품과 묶음 배송 여부는 고객센터로 문의주세요(02-1661-0523)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리ID</t>
+  </si>
+  <si>
+    <t>1차</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉지라면류_69ea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;가공식품&gt;라면&gt;봉지라면 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>용기라면류_73ea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;가공식품&gt;라면&gt;컵라면 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품_28ea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;가공식품&gt;간편조리식 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;가공식품&gt;스프 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;가공식품&gt;소스&gt;기타소스 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;가공식품&gt;면류&gt;스파게티면 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품&gt;가공식품&gt;조미료&gt;후추</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;농산물&gt;건과류&gt;기타건과류 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>스낵제과_106ea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품&gt;과자&gt;사탕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;과자&gt;스낵 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리얼_35ea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;가공식품&gt;시리얼 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>생수음료_48ea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품&gt;음료&gt;생수</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;음료&gt;주스/과즙음료&gt;기타과즙음료 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;음료&gt;차류&gt;기타차 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품&gt;음료&gt;차류&gt;코코아</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;음료&gt;차류&gt;홍차 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;음료&gt;커피&gt;캔커피 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>원두커피_11ea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;음료&gt;커피&gt;원두커피 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활/건강&gt;주방용품&gt;커피용품&gt;여과지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>자판기_22ea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;가공식품&gt;우유 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;음료&gt;차류&gt;유자차 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품&gt;음료&gt;차류&gt;율무차</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;음료&gt;차류&gt;코코아 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품&gt;음료&gt;커피&gt;커피믹스/인스턴트커피</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;음료&gt;커피&gt;프림 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥심커피_39ea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카누_18ea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>오레오_19ea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>전통차_67ea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;음료&gt;차류&gt;녹차 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;음료&gt;차류&gt;옥수수수염차 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;음료&gt;차류&gt;율무차 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">식품&gt;음료&gt;차류&gt;허브차 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,16 +609,78 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0055FF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -230,11 +688,181 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -245,6 +873,90 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -265,69 +977,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1800493" cy="491417"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8172450" y="52476400"/>
-          <a:ext cx="1800493" cy="491417"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>①②③④⑤⑥⑦</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -348,8 +997,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="387350" y="1320801"/>
-          <a:ext cx="9878468" cy="2771775"/>
+          <a:off x="390249" y="1305892"/>
+          <a:ext cx="9909942" cy="2739473"/>
           <a:chOff x="962024" y="1466850"/>
           <a:chExt cx="11782425" cy="3298044"/>
         </a:xfrm>
@@ -629,8 +1278,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="323850" y="5730106"/>
-          <a:ext cx="9858376" cy="4159172"/>
+          <a:off x="326749" y="5663017"/>
+          <a:ext cx="9889850" cy="4109476"/>
           <a:chOff x="323850" y="5520556"/>
           <a:chExt cx="9858376" cy="4159172"/>
         </a:xfrm>
@@ -910,8 +1559,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="342900" y="10696575"/>
-          <a:ext cx="9991726" cy="2539210"/>
+          <a:off x="345799" y="10569851"/>
+          <a:ext cx="10023200" cy="2509393"/>
           <a:chOff x="342900" y="10696575"/>
           <a:chExt cx="9991726" cy="2539210"/>
         </a:xfrm>
@@ -1123,15 +1772,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>133351</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>207285</xdr:rowOff>
+      <xdr:rowOff>9553</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1140,8 +1789,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="723900" y="19754850"/>
-          <a:ext cx="9553575" cy="2874285"/>
+          <a:off x="729699" y="19521280"/>
+          <a:ext cx="8923268" cy="2644251"/>
           <a:chOff x="723900" y="19754850"/>
           <a:chExt cx="9553575" cy="2874285"/>
         </a:xfrm>
@@ -1250,10 +1899,10 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>202981</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>133569</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1262,8 +1911,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="723900" y="23079075"/>
-          <a:ext cx="9515475" cy="3317656"/>
+          <a:off x="729698" y="22805749"/>
+          <a:ext cx="8742293" cy="3003907"/>
           <a:chOff x="723900" y="23079075"/>
           <a:chExt cx="9515475" cy="3317656"/>
         </a:xfrm>
@@ -1421,13 +2070,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>150016</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1476,7 +2125,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="415498" cy="491417"/>
@@ -1539,7 +2188,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>282575</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="415498" cy="491417"/>
@@ -1602,13 +2251,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>396945</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1656,15 +2305,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>166056</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>69200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1688,8 +2337,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="952500" y="36709350"/>
-          <a:ext cx="9134475" cy="6833556"/>
+          <a:off x="952501" y="36290250"/>
+          <a:ext cx="8724900" cy="6527150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1708,250 +2357,181 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:colOff>12326</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>68357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>89531</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>327977</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>201707</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="그림 48"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="그룹 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="906848" y="42930857"/>
+          <a:ext cx="7786564" cy="5724111"/>
+          <a:chOff x="931209" y="44129886"/>
+          <a:chExt cx="8720978" cy="6632645"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="49" name="그림 48"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="931209" y="44129886"/>
+            <a:ext cx="8720978" cy="6632645"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="942975" y="44062651"/>
-          <a:ext cx="8753475" cy="6528430"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>248</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1569660" cy="491417"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="TextBox 49"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8181975" y="52047775"/>
-          <a:ext cx="1569660" cy="491417"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1800" b="1">
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="TextBox 50"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5198409" y="46560815"/>
+            <a:ext cx="415498" cy="491417"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              </a:rPr>
+              <a:t>⑨</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>⑧⑨⑩⑪⑫⑬</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="415498" cy="491417"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="TextBox 50"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5229225" y="46456600"/>
-          <a:ext cx="415498" cy="491417"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1800" b="1">
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="TextBox 51"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6953810" y="47895435"/>
+            <a:ext cx="415498" cy="491417"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              </a:rPr>
+              <a:t>⑧</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>⑨</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="415498" cy="491417"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="TextBox 51"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6991350" y="47771050"/>
-          <a:ext cx="415498" cy="491417"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>⑧</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2242,167 +2822,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C245"/>
+  <dimension ref="B2:C237"/>
   <sheetViews>
-    <sheetView topLeftCell="A218" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S248" sqref="S248"/>
+    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="T52" sqref="T52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="3.875" style="1" customWidth="1"/>
     <col min="3" max="5" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3">
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3">
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3">
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3">
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3">
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="C23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="C24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="C25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="C26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3">
       <c r="C27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3">
       <c r="B49" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3">
       <c r="C51" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:3">
       <c r="C65" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3">
       <c r="C91" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3">
       <c r="B93" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3">
       <c r="C94" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:3">
       <c r="C109" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:3">
       <c r="C110" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C128" t="s">
+    <row r="126" spans="3:3">
+      <c r="C126" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C129" t="s">
+    <row r="127" spans="3:3">
+      <c r="C127" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C156" t="s">
+    <row r="154" spans="3:3">
+      <c r="C154" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C175" t="s">
+    <row r="173" spans="3:3">
+      <c r="C173" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C210" t="s">
+    <row r="206" spans="3:3">
+      <c r="C206" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C211" t="s">
+    <row r="207" spans="3:3">
+      <c r="C207" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C245" t="s">
+    <row r="237" spans="3:3">
+      <c r="C237" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="8" manualBreakCount="8">
     <brk id="21" max="17" man="1"/>
     <brk id="48" max="17" man="1"/>
     <brk id="64" max="17" man="1"/>
     <brk id="92" max="17" man="1"/>
-    <brk id="127" max="17" man="1"/>
-    <brk id="155" max="17" man="1"/>
-    <brk id="174" max="17" man="1"/>
-    <brk id="209" max="17" man="1"/>
+    <brk id="125" max="17" man="1"/>
+    <brk id="153" max="17" man="1"/>
+    <brk id="172" max="17" man="1"/>
+    <brk id="205" max="17" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="18" max="180" man="1"/>
@@ -2413,13 +2993,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36:F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="6" style="4" customWidth="1"/>
@@ -2429,7 +3009,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" s="4" customFormat="1">
       <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
@@ -2443,7 +3023,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -2454,7 +3034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="49.5">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -2465,7 +3045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="49.5">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -2476,7 +3056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -2487,7 +3067,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="33">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -2498,7 +3078,1551 @@
         <v>39</v>
       </c>
     </row>
+    <row r="9" spans="2:6">
+      <c r="F9" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="F12" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="F14" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="F15" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="F16" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:8">
+      <c r="B3" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="9">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="9">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="9">
+        <v>14</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="9">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B5:G28">
+    <sortCondition ref="B5:B28"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:6">
+      <c r="B3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="18">
+        <v>50002385</v>
+      </c>
+      <c r="E4" s="19">
+        <v>69</v>
+      </c>
+      <c r="F4" s="20">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="18">
+        <v>50002386</v>
+      </c>
+      <c r="E5" s="19">
+        <v>73</v>
+      </c>
+      <c r="F5" s="20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="18">
+        <v>50001894</v>
+      </c>
+      <c r="E6" s="19">
+        <v>6</v>
+      </c>
+      <c r="F6" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="21"/>
+      <c r="C7" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="18">
+        <v>50001761</v>
+      </c>
+      <c r="E7" s="19">
+        <v>5</v>
+      </c>
+      <c r="F7" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="21"/>
+      <c r="C8" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="18">
+        <v>50002424</v>
+      </c>
+      <c r="E8" s="19">
+        <v>3</v>
+      </c>
+      <c r="F8" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="21"/>
+      <c r="C9" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="18">
+        <v>50002389</v>
+      </c>
+      <c r="E9" s="19">
+        <v>8</v>
+      </c>
+      <c r="F9" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="21"/>
+      <c r="C10" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="18">
+        <v>50002403</v>
+      </c>
+      <c r="E10" s="19">
+        <v>2</v>
+      </c>
+      <c r="F10" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="21"/>
+      <c r="C11" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="18">
+        <v>50002455</v>
+      </c>
+      <c r="E11" s="19">
+        <v>4</v>
+      </c>
+      <c r="F11" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="18">
+        <v>50002001</v>
+      </c>
+      <c r="E12" s="19">
+        <v>10</v>
+      </c>
+      <c r="F12" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="21"/>
+      <c r="C13" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="18">
+        <v>50001998</v>
+      </c>
+      <c r="E13" s="19">
+        <v>96</v>
+      </c>
+      <c r="F13" s="20">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="18">
+        <v>50002008</v>
+      </c>
+      <c r="E14" s="19">
+        <v>35</v>
+      </c>
+      <c r="F14" s="20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="22">
+        <v>50002032</v>
+      </c>
+      <c r="E15" s="23">
+        <v>50</v>
+      </c>
+      <c r="F15" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="22">
+        <v>50002265</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="22">
+        <v>50002384</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="22">
+        <v>50002267</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="22">
+        <v>50002380</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="21"/>
+      <c r="C20" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="22">
+        <v>50002605</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="18">
+        <v>50002266</v>
+      </c>
+      <c r="E21" s="23">
+        <v>11</v>
+      </c>
+      <c r="F21" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="21"/>
+      <c r="C22" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="18">
+        <v>50004797</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="25">
+        <v>50002006</v>
+      </c>
+      <c r="E23" s="23">
+        <v>21</v>
+      </c>
+      <c r="F23" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="21"/>
+      <c r="C24" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="25">
+        <v>50002384</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="21"/>
+      <c r="C25" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="22">
+        <v>50002595</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="21"/>
+      <c r="C26" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="22">
+        <v>50002596</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="21"/>
+      <c r="C27" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="22">
+        <v>50002267</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="21"/>
+      <c r="C28" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="22">
+        <v>50002380</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="21"/>
+      <c r="C29" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="22">
+        <v>50002606</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="21"/>
+      <c r="C30" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="22">
+        <v>50002607</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="22">
+        <v>50002267</v>
+      </c>
+      <c r="E31" s="23">
+        <v>40</v>
+      </c>
+      <c r="F31" s="24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="21"/>
+      <c r="C32" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="22">
+        <v>50002606</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="21"/>
+      <c r="C33" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="22">
+        <v>50002607</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="22">
+        <v>50002606</v>
+      </c>
+      <c r="E34" s="19">
+        <v>18</v>
+      </c>
+      <c r="F34" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="18">
+        <v>50001998</v>
+      </c>
+      <c r="E35" s="19">
+        <v>19</v>
+      </c>
+      <c r="F35" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="22">
+        <v>50002384</v>
+      </c>
+      <c r="E36" s="23">
+        <v>67</v>
+      </c>
+      <c r="F36" s="24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="21"/>
+      <c r="C37" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="18">
+        <v>50002268</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="21"/>
+      <c r="C38" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="25">
+        <v>50002594</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="21"/>
+      <c r="C39" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="25">
+        <v>50002596</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="21"/>
+      <c r="C40" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="22">
+        <v>50002267</v>
+      </c>
+      <c r="E40" s="23"/>
+      <c r="F40" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="21"/>
+      <c r="C41" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="25">
+        <v>50002381</v>
+      </c>
+      <c r="E41" s="23"/>
+      <c r="F41" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="21"/>
+      <c r="C42" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="25">
+        <v>50002380</v>
+      </c>
+      <c r="E42" s="23"/>
+      <c r="F42" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="29">
+        <f>SUM(E4:E42)</f>
+        <v>537</v>
+      </c>
+      <c r="F43" s="30">
+        <f>SUM(F4:F42)</f>
+        <v>535</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="E23:E30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="E36:E42"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E21:E22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:5">
+      <c r="B3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="18">
+        <v>50004797</v>
+      </c>
+      <c r="E4" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="18">
+        <v>50001894</v>
+      </c>
+      <c r="E5" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="18">
+        <v>50002385</v>
+      </c>
+      <c r="E6" s="20">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="18">
+        <v>50002386</v>
+      </c>
+      <c r="E7" s="20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="18">
+        <v>50002389</v>
+      </c>
+      <c r="E8" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="18">
+        <v>50002424</v>
+      </c>
+      <c r="E9" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="18">
+        <v>50001761</v>
+      </c>
+      <c r="E10" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="33">
+        <v>50002008</v>
+      </c>
+      <c r="E11" s="34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="25">
+        <v>50002006</v>
+      </c>
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="18">
+        <v>50002403</v>
+      </c>
+      <c r="E13" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="18">
+        <v>50002001</v>
+      </c>
+      <c r="E14" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="18">
+        <v>50001998</v>
+      </c>
+      <c r="E15" s="20">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="18">
+        <v>50001998</v>
+      </c>
+      <c r="E16" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="18">
+        <v>50002455</v>
+      </c>
+      <c r="E17" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="22">
+        <v>50002032</v>
+      </c>
+      <c r="E18" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="22">
+        <v>50002265</v>
+      </c>
+      <c r="E19" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="22">
+        <v>50002384</v>
+      </c>
+      <c r="E20" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="25">
+        <v>50002384</v>
+      </c>
+      <c r="E21" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="22">
+        <v>50002384</v>
+      </c>
+      <c r="E22" s="24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="18">
+        <v>50002268</v>
+      </c>
+      <c r="E23" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="25">
+        <v>50002594</v>
+      </c>
+      <c r="E24" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="22">
+        <v>50002595</v>
+      </c>
+      <c r="E25" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="22">
+        <v>50002596</v>
+      </c>
+      <c r="E26" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="25">
+        <v>50002596</v>
+      </c>
+      <c r="E27" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="22">
+        <v>50002267</v>
+      </c>
+      <c r="E28" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="22">
+        <v>50002267</v>
+      </c>
+      <c r="E29" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="22">
+        <v>50002267</v>
+      </c>
+      <c r="E30" s="24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="22">
+        <v>50002267</v>
+      </c>
+      <c r="E31" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="25">
+        <v>50002381</v>
+      </c>
+      <c r="E32" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="22">
+        <v>50002380</v>
+      </c>
+      <c r="E33" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="22">
+        <v>50002380</v>
+      </c>
+      <c r="E34" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="25">
+        <v>50002380</v>
+      </c>
+      <c r="E35" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="18">
+        <v>50002266</v>
+      </c>
+      <c r="E36" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="22">
+        <v>50002605</v>
+      </c>
+      <c r="E37" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="22">
+        <v>50002606</v>
+      </c>
+      <c r="E38" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="22">
+        <v>50002606</v>
+      </c>
+      <c r="E39" s="24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="22">
+        <v>50002606</v>
+      </c>
+      <c r="E40" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="22">
+        <v>50002607</v>
+      </c>
+      <c r="E41" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="22">
+        <v>50002607</v>
+      </c>
+      <c r="E42" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="30">
+        <f>SUM(E4:E42)</f>
+        <v>535</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B4:F42">
+    <sortCondition ref="C4:C42"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="B43:D43"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/제품등록 검토사항.xlsx
+++ b/제품등록 검토사항.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="등록방법" sheetId="2" r:id="rId1"/>
@@ -680,7 +680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -858,11 +858,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -916,46 +1086,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3229,8 +3483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3464,7 +3718,7 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="30" t="s">
         <v>79</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -3481,7 +3735,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="21"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="18" t="s">
         <v>81</v>
       </c>
@@ -3496,7 +3750,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="21"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="18" t="s">
         <v>82</v>
       </c>
@@ -3511,7 +3765,7 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="21"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="18" t="s">
         <v>83</v>
       </c>
@@ -3526,7 +3780,7 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="21"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="18" t="s">
         <v>84</v>
       </c>
@@ -3541,7 +3795,7 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="21"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="18" t="s">
         <v>85</v>
       </c>
@@ -3556,7 +3810,7 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="30" t="s">
         <v>86</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -3573,7 +3827,7 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="21"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="18" t="s">
         <v>88</v>
       </c>
@@ -3605,16 +3859,16 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>50002032</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="31">
         <v>50</v>
       </c>
       <c r="F15" s="20">
@@ -3622,72 +3876,72 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="21"/>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>50002265</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="20">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="21"/>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>50002384</v>
       </c>
-      <c r="E17" s="23"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="21"/>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>50002267</v>
       </c>
-      <c r="E18" s="23"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="21"/>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>50002380</v>
       </c>
-      <c r="E19" s="23"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="21"/>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>50002605</v>
       </c>
-      <c r="E20" s="23"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="20">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="30" t="s">
         <v>98</v>
       </c>
       <c r="C21" s="18" t="s">
@@ -3696,7 +3950,7 @@
       <c r="D21" s="18">
         <v>50002266</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="31">
         <v>11</v>
       </c>
       <c r="F21" s="20">
@@ -3704,166 +3958,166 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="21"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="18" t="s">
         <v>100</v>
       </c>
       <c r="D22" s="18">
         <v>50004797</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24">
+      <c r="E22" s="31"/>
+      <c r="F22" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="23">
         <v>50002006</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="31">
         <v>21</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="21"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="23">
         <v>50002384</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24">
+      <c r="E24" s="31"/>
+      <c r="F24" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="21"/>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>50002595</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24">
+      <c r="E25" s="31"/>
+      <c r="F25" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="21"/>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>50002596</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24">
+      <c r="E26" s="31"/>
+      <c r="F26" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="21"/>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>50002267</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24">
+      <c r="E27" s="31"/>
+      <c r="F27" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="21"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>50002380</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24">
+      <c r="E28" s="31"/>
+      <c r="F28" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="21"/>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>50002606</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24">
+      <c r="E29" s="31"/>
+      <c r="F29" s="22">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="21"/>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>50002607</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="24">
+      <c r="E30" s="31"/>
+      <c r="F30" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="21">
         <v>50002267</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="31">
         <v>40</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="22">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="21"/>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="21">
         <v>50002606</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24">
+      <c r="E32" s="31"/>
+      <c r="F32" s="22">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="21"/>
-      <c r="C33" s="22" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21">
         <v>50002607</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24">
+      <c r="E33" s="31"/>
+      <c r="F33" s="22">
         <v>4</v>
       </c>
     </row>
@@ -3871,10 +4125,10 @@
       <c r="B34" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <v>50002606</v>
       </c>
       <c r="E34" s="19">
@@ -3902,115 +4156,121 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="21">
         <v>50002384</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="31">
         <v>67</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="22">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="21"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D37" s="18">
         <v>50002268</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="24">
+      <c r="E37" s="31"/>
+      <c r="F37" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="21"/>
-      <c r="C38" s="25" t="s">
+      <c r="B38" s="30"/>
+      <c r="C38" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="23">
         <v>50002594</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="24">
+      <c r="E38" s="31"/>
+      <c r="F38" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="21"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="30"/>
+      <c r="C39" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="23">
         <v>50002596</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="24">
+      <c r="E39" s="31"/>
+      <c r="F39" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="21"/>
-      <c r="C40" s="22" t="s">
+      <c r="B40" s="30"/>
+      <c r="C40" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <v>50002267</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="24">
+      <c r="E40" s="31"/>
+      <c r="F40" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="21"/>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="30"/>
+      <c r="C41" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="23">
         <v>50002381</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="24">
+      <c r="E41" s="31"/>
+      <c r="F41" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="21"/>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="30"/>
+      <c r="C42" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="23">
         <v>50002380</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="24">
+      <c r="E42" s="31"/>
+      <c r="F42" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="29">
+      <c r="B43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="24">
         <f>SUM(E4:E42)</f>
         <v>537</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="25">
         <f>SUM(F4:F42)</f>
         <v>535</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B23:B30"/>
     <mergeCell ref="E23:E30"/>
@@ -4018,12 +4278,6 @@
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="B36:B42"/>
     <mergeCell ref="E36:E42"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4034,8 +4288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4062,7 +4316,7 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="26" t="s">
         <v>98</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -4071,12 +4325,12 @@
       <c r="D4" s="18">
         <v>50004797</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -4118,7 +4372,7 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="26" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -4132,7 +4386,7 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="26" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -4146,7 +4400,7 @@
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="26" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -4169,26 +4423,26 @@
       <c r="D11" s="33">
         <v>50002008</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="22">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="23">
         <v>50002006</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="26" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -4201,417 +4455,417 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="31" t="s">
+    <row r="14" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B14" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="35">
         <v>50002001</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="36">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="48">
         <v>50001998</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="49">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="17" t="s">
+    <row r="16" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B16" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="51">
         <v>50001998</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="52">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="41">
         <v>50002455</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>50002032</v>
       </c>
       <c r="E18" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="31" t="s">
+    <row r="19" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B19" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="37">
         <v>50002265</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="36">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="53">
         <v>50002384</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="49">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="23">
         <v>50002384</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="31" t="s">
+    <row r="22" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B22" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="55">
         <v>50002384</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="56">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="41">
         <v>50002268</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="31" t="s">
+    <row r="24" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B24" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="38">
         <v>50002594</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="39">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="53">
         <v>50002595</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>50002596</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="31" t="s">
+    <row r="27" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B27" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="58">
         <v>50002596</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="56">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="53">
         <v>50002267</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>50002267</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>50002267</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="22">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="31" t="s">
+    <row r="31" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B31" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="55">
         <v>50002267</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="56">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="31" t="s">
+    <row r="32" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B32" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="45">
         <v>50002381</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="53">
         <v>50002380</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="49">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <v>50002380</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="31" t="s">
+    <row r="35" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B35" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="58">
         <v>50002380</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="56">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="41">
         <v>50002266</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="42">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="31" t="s">
+    <row r="37" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B37" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="37">
         <v>50002605</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="36">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="53">
         <v>50002606</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="57">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <v>50002606</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="22">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="17" t="s">
+    <row r="40" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B40" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="55">
         <v>50002606</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="52">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="53">
         <v>50002607</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="31" t="s">
+    <row r="42" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B42" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="55">
         <v>50002607</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="56">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="17.25" thickBot="1">
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="30">
+      <c r="B43" s="59"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="62">
         <f>SUM(E4:E42)</f>
         <v>535</v>
       </c>
